--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Agrp</t>
   </si>
   <si>
     <t>Mc5r</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.80047313623929</v>
+        <v>0.2239496666666667</v>
       </c>
       <c r="H2">
-        <v>2.80047313623929</v>
+        <v>0.671849</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.04591675498971699</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.04591675498971699</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.2386370672583</v>
+        <v>0.298807</v>
       </c>
       <c r="N2">
-        <v>1.2386370672583</v>
+        <v>0.896421</v>
       </c>
       <c r="O2">
-        <v>0.7684031746175081</v>
+        <v>0.1375952161456007</v>
       </c>
       <c r="P2">
-        <v>0.7684031746175081</v>
+        <v>0.1375952161456007</v>
       </c>
       <c r="Q2">
-        <v>3.468769832407088</v>
+        <v>0.06691772804766667</v>
       </c>
       <c r="R2">
-        <v>3.468769832407088</v>
+        <v>0.6022595524290001</v>
       </c>
       <c r="S2">
-        <v>0.7684031746175081</v>
+        <v>0.0063179258275147</v>
       </c>
       <c r="T2">
-        <v>0.7684031746175081</v>
+        <v>0.006317925827514699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,1053 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.2239496666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.671849</v>
+      </c>
+      <c r="I3">
+        <v>0.04591675498971699</v>
+      </c>
+      <c r="J3">
+        <v>0.04591675498971699</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.244994333333333</v>
+      </c>
+      <c r="N3">
+        <v>3.734983</v>
+      </c>
+      <c r="O3">
+        <v>0.5732973604870303</v>
+      </c>
+      <c r="P3">
+        <v>0.5732973604870303</v>
+      </c>
+      <c r="Q3">
+        <v>0.2788160659518889</v>
+      </c>
+      <c r="R3">
+        <v>2.509344593567</v>
+      </c>
+      <c r="S3">
+        <v>0.02632395443773443</v>
+      </c>
+      <c r="T3">
+        <v>0.02632395443773443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.2239496666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.671849</v>
+      </c>
+      <c r="I4">
+        <v>0.04591675498971699</v>
+      </c>
+      <c r="J4">
+        <v>0.04591675498971699</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.6278366666666666</v>
+      </c>
+      <c r="N4">
+        <v>1.88351</v>
+      </c>
+      <c r="O4">
+        <v>0.2891074233673691</v>
+      </c>
+      <c r="P4">
+        <v>0.2891074233673691</v>
+      </c>
+      <c r="Q4">
+        <v>0.1406038122211111</v>
+      </c>
+      <c r="R4">
+        <v>1.26543430999</v>
+      </c>
+      <c r="S4">
+        <v>0.01327487472446787</v>
+      </c>
+      <c r="T4">
+        <v>0.01327487472446787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.7402036666666666</v>
+      </c>
+      <c r="H5">
+        <v>2.220611</v>
+      </c>
+      <c r="I5">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="J5">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.298807</v>
+      </c>
+      <c r="N5">
+        <v>0.896421</v>
+      </c>
+      <c r="O5">
+        <v>0.1375952161456007</v>
+      </c>
+      <c r="P5">
+        <v>0.1375952161456007</v>
+      </c>
+      <c r="Q5">
+        <v>0.2211780370256666</v>
+      </c>
+      <c r="R5">
+        <v>1.990602333231</v>
+      </c>
+      <c r="S5">
+        <v>0.02088215594540327</v>
+      </c>
+      <c r="T5">
+        <v>0.02088215594540327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.7402036666666666</v>
+      </c>
+      <c r="H6">
+        <v>2.220611</v>
+      </c>
+      <c r="I6">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="J6">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.244994333333333</v>
+      </c>
+      <c r="N6">
+        <v>3.734983</v>
+      </c>
+      <c r="O6">
+        <v>0.5732973604870303</v>
+      </c>
+      <c r="P6">
+        <v>0.5732973604870303</v>
+      </c>
+      <c r="Q6">
+        <v>0.9215493705125555</v>
+      </c>
+      <c r="R6">
+        <v>8.293944334613</v>
+      </c>
+      <c r="S6">
+        <v>0.08700654877499539</v>
+      </c>
+      <c r="T6">
+        <v>0.08700654877499539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.7402036666666666</v>
+      </c>
+      <c r="H7">
+        <v>2.220611</v>
+      </c>
+      <c r="I7">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="J7">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6278366666666666</v>
+      </c>
+      <c r="N7">
+        <v>1.88351</v>
+      </c>
+      <c r="O7">
+        <v>0.2891074233673691</v>
+      </c>
+      <c r="P7">
+        <v>0.2891074233673691</v>
+      </c>
+      <c r="Q7">
+        <v>0.4647270027344443</v>
+      </c>
+      <c r="R7">
+        <v>4.182543024609999</v>
+      </c>
+      <c r="S7">
+        <v>0.04387642585874998</v>
+      </c>
+      <c r="T7">
+        <v>0.04387642585874998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1166683333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.350005</v>
+      </c>
+      <c r="I8">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="J8">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.298807</v>
+      </c>
+      <c r="N8">
+        <v>0.896421</v>
+      </c>
+      <c r="O8">
+        <v>0.1375952161456007</v>
+      </c>
+      <c r="P8">
+        <v>0.1375952161456007</v>
+      </c>
+      <c r="Q8">
+        <v>0.03486131467833333</v>
+      </c>
+      <c r="R8">
+        <v>0.313751832105</v>
+      </c>
+      <c r="S8">
+        <v>0.003291372956213796</v>
+      </c>
+      <c r="T8">
+        <v>0.003291372956213796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1166683333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.350005</v>
+      </c>
+      <c r="I9">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="J9">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.244994333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.734983</v>
+      </c>
+      <c r="O9">
+        <v>0.5732973604870303</v>
+      </c>
+      <c r="P9">
+        <v>0.5732973604870303</v>
+      </c>
+      <c r="Q9">
+        <v>0.1452514138794444</v>
+      </c>
+      <c r="R9">
+        <v>1.307262724915</v>
+      </c>
+      <c r="S9">
+        <v>0.01371367029344278</v>
+      </c>
+      <c r="T9">
+        <v>0.01371367029344278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1166683333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.350005</v>
+      </c>
+      <c r="I10">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="J10">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6278366666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.88351</v>
+      </c>
+      <c r="O10">
+        <v>0.2891074233673691</v>
+      </c>
+      <c r="P10">
+        <v>0.2891074233673691</v>
+      </c>
+      <c r="Q10">
+        <v>0.07324865750555555</v>
+      </c>
+      <c r="R10">
+        <v>0.6592379175499999</v>
+      </c>
+      <c r="S10">
+        <v>0.006915649986734185</v>
+      </c>
+      <c r="T10">
+        <v>0.006915649986734185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.5808623333333334</v>
+      </c>
+      <c r="H11">
+        <v>1.742587</v>
+      </c>
+      <c r="I11">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="J11">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.298807</v>
+      </c>
+      <c r="N11">
+        <v>0.896421</v>
+      </c>
+      <c r="O11">
+        <v>0.1375952161456007</v>
+      </c>
+      <c r="P11">
+        <v>0.1375952161456007</v>
+      </c>
+      <c r="Q11">
+        <v>0.1735657312363333</v>
+      </c>
+      <c r="R11">
+        <v>1.562091581127</v>
+      </c>
+      <c r="S11">
+        <v>0.01638691940300776</v>
+      </c>
+      <c r="T11">
+        <v>0.01638691940300776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.5808623333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.742587</v>
+      </c>
+      <c r="I12">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="J12">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.244994333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.734983</v>
+      </c>
+      <c r="O12">
+        <v>0.5732973604870303</v>
+      </c>
+      <c r="P12">
+        <v>0.5732973604870303</v>
+      </c>
+      <c r="Q12">
+        <v>0.7231703134467778</v>
+      </c>
+      <c r="R12">
+        <v>6.508532821021</v>
+      </c>
+      <c r="S12">
+        <v>0.06827692054581956</v>
+      </c>
+      <c r="T12">
+        <v>0.06827692054581956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.5808623333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.742587</v>
+      </c>
+      <c r="I13">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="J13">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6278366666666666</v>
+      </c>
+      <c r="N13">
+        <v>1.88351</v>
+      </c>
+      <c r="O13">
+        <v>0.2891074233673691</v>
+      </c>
+      <c r="P13">
+        <v>0.2891074233673691</v>
+      </c>
+      <c r="Q13">
+        <v>0.3646866711522222</v>
+      </c>
+      <c r="R13">
+        <v>3.28218004037</v>
+      </c>
+      <c r="S13">
+        <v>0.03443128459145774</v>
+      </c>
+      <c r="T13">
+        <v>0.03443128459145774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2.80047313623929</v>
-      </c>
-      <c r="H3">
-        <v>2.80047313623929</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.373325387054649</v>
-      </c>
-      <c r="N3">
-        <v>0.373325387054649</v>
-      </c>
-      <c r="O3">
-        <v>0.2315968253824918</v>
-      </c>
-      <c r="P3">
-        <v>0.2315968253824918</v>
-      </c>
-      <c r="Q3">
-        <v>1.04548771752268</v>
-      </c>
-      <c r="R3">
-        <v>1.04548771752268</v>
-      </c>
-      <c r="S3">
-        <v>0.2315968253824918</v>
-      </c>
-      <c r="T3">
-        <v>0.2315968253824918</v>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.024446</v>
+      </c>
+      <c r="H14">
+        <v>9.073338</v>
+      </c>
+      <c r="I14">
+        <v>0.6201069554094576</v>
+      </c>
+      <c r="J14">
+        <v>0.6201069554094577</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.298807</v>
+      </c>
+      <c r="N14">
+        <v>0.896421</v>
+      </c>
+      <c r="O14">
+        <v>0.1375952161456007</v>
+      </c>
+      <c r="P14">
+        <v>0.1375952161456007</v>
+      </c>
+      <c r="Q14">
+        <v>0.9037256359219998</v>
+      </c>
+      <c r="R14">
+        <v>8.133530723298</v>
+      </c>
+      <c r="S14">
+        <v>0.0853237505629547</v>
+      </c>
+      <c r="T14">
+        <v>0.08532375056295471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.024446</v>
+      </c>
+      <c r="H15">
+        <v>9.073338</v>
+      </c>
+      <c r="I15">
+        <v>0.6201069554094576</v>
+      </c>
+      <c r="J15">
+        <v>0.6201069554094577</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.244994333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.734983</v>
+      </c>
+      <c r="O15">
+        <v>0.5732973604870303</v>
+      </c>
+      <c r="P15">
+        <v>0.5732973604870303</v>
+      </c>
+      <c r="Q15">
+        <v>3.765418131472666</v>
+      </c>
+      <c r="R15">
+        <v>33.888763183254</v>
+      </c>
+      <c r="S15">
+        <v>0.3555056807558906</v>
+      </c>
+      <c r="T15">
+        <v>0.3555056807558907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.024446</v>
+      </c>
+      <c r="H16">
+        <v>9.073338</v>
+      </c>
+      <c r="I16">
+        <v>0.6201069554094576</v>
+      </c>
+      <c r="J16">
+        <v>0.6201069554094577</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6278366666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.88351</v>
+      </c>
+      <c r="O16">
+        <v>0.2891074233673691</v>
+      </c>
+      <c r="P16">
+        <v>0.2891074233673691</v>
+      </c>
+      <c r="Q16">
+        <v>1.898858095153333</v>
+      </c>
+      <c r="R16">
+        <v>17.08972285638</v>
+      </c>
+      <c r="S16">
+        <v>0.1792775240906123</v>
+      </c>
+      <c r="T16">
+        <v>0.1792775240906124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1911673333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.573502</v>
+      </c>
+      <c r="I17">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="J17">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.298807</v>
+      </c>
+      <c r="N17">
+        <v>0.896421</v>
+      </c>
+      <c r="O17">
+        <v>0.1375952161456007</v>
+      </c>
+      <c r="P17">
+        <v>0.1375952161456007</v>
+      </c>
+      <c r="Q17">
+        <v>0.05712213737133333</v>
+      </c>
+      <c r="R17">
+        <v>0.5140992363419999</v>
+      </c>
+      <c r="S17">
+        <v>0.005393091450506491</v>
+      </c>
+      <c r="T17">
+        <v>0.00539309145050649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1911673333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.573502</v>
+      </c>
+      <c r="I18">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="J18">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.244994333333333</v>
+      </c>
+      <c r="N18">
+        <v>3.734983</v>
+      </c>
+      <c r="O18">
+        <v>0.5732973604870303</v>
+      </c>
+      <c r="P18">
+        <v>0.5732973604870303</v>
+      </c>
+      <c r="Q18">
+        <v>0.2380022467184444</v>
+      </c>
+      <c r="R18">
+        <v>2.142020220466</v>
+      </c>
+      <c r="S18">
+        <v>0.0224705856791475</v>
+      </c>
+      <c r="T18">
+        <v>0.0224705856791475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1911673333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.573502</v>
+      </c>
+      <c r="I19">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="J19">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6278366666666666</v>
+      </c>
+      <c r="N19">
+        <v>1.88351</v>
+      </c>
+      <c r="O19">
+        <v>0.2891074233673691</v>
+      </c>
+      <c r="P19">
+        <v>0.2891074233673691</v>
+      </c>
+      <c r="Q19">
+        <v>0.1200218613355555</v>
+      </c>
+      <c r="R19">
+        <v>1.08019675202</v>
+      </c>
+      <c r="S19">
+        <v>0.01133166411534701</v>
+      </c>
+      <c r="T19">
+        <v>0.011331664115347</v>
       </c>
     </row>
   </sheetData>
